--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.291812</v>
+        <v>0.5347833333333334</v>
       </c>
       <c r="H2">
-        <v>0.875436</v>
+        <v>1.60435</v>
       </c>
       <c r="I2">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="J2">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N2">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P2">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q2">
-        <v>0.2061925110573333</v>
+        <v>0.5971898744166667</v>
       </c>
       <c r="R2">
-        <v>1.855732599516</v>
+        <v>5.374708869750001</v>
       </c>
       <c r="S2">
-        <v>0.0006118844817437333</v>
+        <v>0.001608865746233728</v>
       </c>
       <c r="T2">
-        <v>0.0006118844817437332</v>
+        <v>0.001608865746233729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.291812</v>
+        <v>0.5347833333333334</v>
       </c>
       <c r="H3">
-        <v>0.875436</v>
+        <v>1.60435</v>
       </c>
       <c r="I3">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="J3">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>335.79602</v>
       </c>
       <c r="O3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P3">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q3">
-        <v>32.66310272941333</v>
+        <v>59.8593716318889</v>
       </c>
       <c r="R3">
-        <v>293.96792456472</v>
+        <v>538.7343446870001</v>
       </c>
       <c r="S3">
-        <v>0.09692905713812337</v>
+        <v>0.1612647781473055</v>
       </c>
       <c r="T3">
-        <v>0.09692905713812336</v>
+        <v>0.1612647781473055</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.291812</v>
+        <v>0.5347833333333334</v>
       </c>
       <c r="H4">
-        <v>0.875436</v>
+        <v>1.60435</v>
       </c>
       <c r="I4">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="J4">
-        <v>0.1179458223311005</v>
+        <v>0.196822066153855</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>70.689615</v>
       </c>
       <c r="O4">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P4">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q4">
-        <v>6.87602597746</v>
+        <v>12.60120931391667</v>
       </c>
       <c r="R4">
-        <v>61.88423379714001</v>
+        <v>113.41088382525</v>
       </c>
       <c r="S4">
-        <v>0.02040488071123339</v>
+        <v>0.03394842226031577</v>
       </c>
       <c r="T4">
-        <v>0.02040488071123339</v>
+        <v>0.03394842226031577</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.542198</v>
       </c>
       <c r="I5">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="J5">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N5">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O5">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P5">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q5">
-        <v>0.3632357798486666</v>
+        <v>0.57405493187</v>
       </c>
       <c r="R5">
-        <v>3.269122018637999</v>
+        <v>5.16649438683</v>
       </c>
       <c r="S5">
-        <v>0.001077916631228578</v>
+        <v>0.001546538807685457</v>
       </c>
       <c r="T5">
-        <v>0.001077916631228578</v>
+        <v>0.001546538807685457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.542198</v>
       </c>
       <c r="I6">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="J6">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>335.79602</v>
       </c>
       <c r="O6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P6">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q6">
         <v>57.54043893910667</v>
@@ -818,10 +818,10 @@
         <v>517.86395045196</v>
       </c>
       <c r="S6">
-        <v>0.1707535423038344</v>
+        <v>0.1550174328103084</v>
       </c>
       <c r="T6">
-        <v>0.1707535423038344</v>
+        <v>0.1550174328103084</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.542198</v>
       </c>
       <c r="I7">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="J7">
-        <v>0.2077773947009016</v>
+        <v>0.1891972429821067</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>70.689615</v>
       </c>
       <c r="O7">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P7">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q7">
         <v>12.11304254153</v>
@@ -880,10 +880,10 @@
         <v>109.01738287377</v>
       </c>
       <c r="S7">
-        <v>0.03594593576583863</v>
+        <v>0.03263327136411286</v>
       </c>
       <c r="T7">
-        <v>0.03594593576583864</v>
+        <v>0.03263327136411286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.004723</v>
       </c>
       <c r="I8">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640383</v>
       </c>
       <c r="J8">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640382</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7065936666666666</v>
+        <v>1.116695</v>
       </c>
       <c r="N8">
-        <v>2.119781</v>
+        <v>3.350085</v>
       </c>
       <c r="O8">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497491</v>
       </c>
       <c r="P8">
-        <v>0.005187843618793344</v>
+        <v>0.008174214292497492</v>
       </c>
       <c r="Q8">
-        <v>1.178768525073667</v>
+        <v>1.862916383495</v>
       </c>
       <c r="R8">
-        <v>10.608916725663</v>
+        <v>16.766247451455</v>
       </c>
       <c r="S8">
-        <v>0.003498042505821033</v>
+        <v>0.005018809738578305</v>
       </c>
       <c r="T8">
-        <v>0.003498042505821033</v>
+        <v>0.005018809738578305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.004723</v>
       </c>
       <c r="I9">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640383</v>
       </c>
       <c r="J9">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640382</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>335.79602</v>
       </c>
       <c r="O9">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="P9">
-        <v>0.8218100075305903</v>
+        <v>0.8193429796700005</v>
       </c>
       <c r="Q9">
         <v>186.7295627336067</v>
@@ -1004,10 +1004,10 @@
         <v>1680.56606460246</v>
       </c>
       <c r="S9">
-        <v>0.5541274080886326</v>
+        <v>0.5030607687123866</v>
       </c>
       <c r="T9">
-        <v>0.5541274080886326</v>
+        <v>0.5030607687123865</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.004723</v>
       </c>
       <c r="I10">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640383</v>
       </c>
       <c r="J10">
-        <v>0.674276782967998</v>
+        <v>0.6139806908640382</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>70.689615</v>
       </c>
       <c r="O10">
-        <v>0.1730021488506163</v>
+        <v>0.172482806037502</v>
       </c>
       <c r="P10">
-        <v>0.1730021488506163</v>
+        <v>0.1724828060375021</v>
       </c>
       <c r="Q10">
         <v>39.309104672405</v>
@@ -1066,10 +1066,10 @@
         <v>353.781942051645</v>
       </c>
       <c r="S10">
-        <v>0.1166513323735443</v>
+        <v>0.1059011124130734</v>
       </c>
       <c r="T10">
-        <v>0.1166513323735443</v>
+        <v>0.1059011124130734</v>
       </c>
     </row>
   </sheetData>
